--- a/Stars clusters.xlsx
+++ b/Stars clusters.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -43,18 +43,6 @@
     <t>60 58 00</t>
   </si>
   <si>
-    <t>Berkeley 60</t>
-  </si>
-  <si>
-    <t>https://webda.physics.muni.cz/cgi-bin/ocl_page.cgi?dirname=be060</t>
-  </si>
-  <si>
-    <t>00 17 42</t>
-  </si>
-  <si>
-    <t>60 56 00</t>
-  </si>
-  <si>
     <t>Stock 24</t>
   </si>
   <si>
@@ -65,18 +53,6 @@
   </si>
   <si>
     <t>61 57 00</t>
-  </si>
-  <si>
-    <t>King 2</t>
-  </si>
-  <si>
-    <t>https://webda.physics.muni.cz/cgi-bin/ocl_page.cgi?dirname=ki02</t>
-  </si>
-  <si>
-    <t>00 51 00</t>
-  </si>
-  <si>
-    <t>58 11 00</t>
   </si>
   <si>
     <t>King 15</t>
@@ -424,7 +400,7 @@
         <v>10.0</v>
       </c>
       <c r="F3" s="1">
-        <v>1492.0</v>
+        <v>2121.0</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +420,7 @@
         <v>10.0</v>
       </c>
       <c r="F4" s="1">
-        <v>2121.0</v>
+        <v>2326.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,56 +430,16 @@
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3">
+        <v>36805.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>10.0</v>
       </c>
       <c r="F5" s="1">
-        <v>950.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2326.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3">
-        <v>36805.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F7" s="1">
         <v>3452.0</v>
       </c>
     </row>
@@ -513,9 +449,7 @@
     <hyperlink r:id="rId2" ref="B3"/>
     <hyperlink r:id="rId3" ref="B4"/>
     <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>